--- a/TC_Template/Main.rvl.xlsx
+++ b/TC_Template/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="116">
   <si>
     <t>Flow</t>
   </si>
@@ -347,6 +347,21 @@
   </si>
   <si>
     <t>Template</t>
+  </si>
+  <si>
+    <t>Sfdc</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>OpenApp</t>
+  </si>
+  <si>
+    <t>NavigateModule</t>
+  </si>
+  <si>
+    <t>SelectListView</t>
   </si>
 </sst>
 </file>
@@ -367,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="669">
+  <borders count="683">
     <border>
       <left/>
       <right/>
@@ -1043,11 +1058,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="669">
+  <cellXfs count="683">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1717,6 +1746,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="666" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="667" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="668" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="669" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="670" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="671" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="672" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="673" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="674" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="675" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="676" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="677" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="678" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="679" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="680" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="681" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="682" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -1880,288 +1923,228 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="221"/>
+      <c r="A9" s="218" t="s">
+        <v>83</v>
+      </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="222"/>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
+      <c r="A10" s="219"/>
     </row>
     <row r="11">
-      <c r="A11" s="223"/>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>101</v>
-      </c>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="24"/>
     </row>
     <row r="12">
-      <c r="A12" s="224"/>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" t="s">
-        <v>101</v>
-      </c>
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="32"/>
     </row>
     <row r="13">
-      <c r="A13" s="218" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="41"/>
+      <c r="B14" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="665"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="187"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="71" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="72"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="113"/>
+      <c r="B19" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="115" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F19" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G19" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="219"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="24"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="32"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="40"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="41"/>
-      <c r="B18" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="48"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="120"/>
     </row>
     <row r="20">
-      <c r="A20" s="665"/>
+      <c r="A20" s="121"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="128"/>
     </row>
     <row r="21">
-      <c r="A21" s="187"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="132"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="135"/>
+      <c r="H21" s="136"/>
     </row>
     <row r="22">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="H22" s="72"/>
+      <c r="A22" s="137"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="139"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="144"/>
     </row>
     <row r="23">
-      <c r="A23" s="113"/>
-      <c r="B23" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="D23" s="116" t="s">
-        <v>108</v>
-      </c>
-      <c r="E23" s="117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F23" s="118" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="119" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="120"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="152"/>
     </row>
     <row r="24">
-      <c r="A24" s="121"/>
-      <c r="B24" s="122"/>
-      <c r="C24" s="123"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="125"/>
-      <c r="F24" s="126"/>
-      <c r="G24" s="127"/>
-      <c r="H24" s="128"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="129"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="132"/>
-      <c r="E25" s="133"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="136"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="137"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="145"/>
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
-      <c r="D27" s="148"/>
-      <c r="E27" s="149"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="152"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="153"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="160"/>
+      <c r="A24" s="153"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
     </row>
   </sheetData>
 </worksheet>
@@ -2169,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H41"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.453125" customWidth="true"/>
@@ -2219,414 +2202,394 @@
       <c r="H2" s="313"/>
     </row>
     <row r="3">
-      <c r="A3" s="314"/>
-      <c r="B3" s="315"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="318"/>
-      <c r="F3" s="319"/>
-      <c r="G3" s="320"/>
-      <c r="H3" s="321"/>
+      <c r="A3" s="330"/>
+      <c r="B3" s="331"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="333"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="336"/>
+      <c r="H3" s="337"/>
     </row>
     <row r="4">
-      <c r="A4" s="322"/>
-      <c r="B4" s="323"/>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="326"/>
-      <c r="F4" s="327"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="329"/>
+      <c r="A4" s="338"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="341"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="343"/>
+      <c r="G4" s="344"/>
+      <c r="H4" s="345"/>
     </row>
     <row r="5">
-      <c r="A5" s="330"/>
-      <c r="B5" s="331"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="333"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="335"/>
-      <c r="G5" s="336"/>
-      <c r="H5" s="337"/>
+      <c r="A5" s="346"/>
+      <c r="B5" s="347"/>
+      <c r="C5" s="348"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="350"/>
+      <c r="F5" s="351"/>
+      <c r="G5" s="352"/>
+      <c r="H5" s="353"/>
     </row>
     <row r="6">
-      <c r="A6" s="338"/>
-      <c r="B6" s="339"/>
-      <c r="C6" s="340"/>
-      <c r="D6" s="341"/>
-      <c r="E6" s="342"/>
-      <c r="F6" s="343"/>
-      <c r="G6" s="344"/>
-      <c r="H6" s="345"/>
+      <c r="A6" s="354"/>
+      <c r="B6" s="355"/>
+      <c r="C6" s="356"/>
+      <c r="D6" s="357"/>
+      <c r="E6" s="358"/>
+      <c r="F6" s="359"/>
+      <c r="G6" s="360"/>
+      <c r="H6" s="361"/>
     </row>
     <row r="7">
-      <c r="A7" s="346"/>
-      <c r="B7" s="347"/>
-      <c r="C7" s="348"/>
-      <c r="D7" s="349"/>
-      <c r="E7" s="350"/>
-      <c r="F7" s="351"/>
-      <c r="G7" s="352"/>
-      <c r="H7" s="353"/>
+      <c r="A7" s="362"/>
+      <c r="B7" s="363"/>
+      <c r="C7" s="364"/>
+      <c r="D7" s="365"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="368"/>
+      <c r="H7" s="369"/>
     </row>
     <row r="8">
-      <c r="A8" s="354"/>
-      <c r="B8" s="355"/>
-      <c r="C8" s="356"/>
-      <c r="D8" s="357"/>
-      <c r="E8" s="358"/>
-      <c r="F8" s="359"/>
-      <c r="G8" s="360"/>
-      <c r="H8" s="361"/>
+      <c r="A8" s="370"/>
+      <c r="B8" s="371"/>
+      <c r="C8" s="372"/>
+      <c r="D8" s="373"/>
+      <c r="E8" s="374"/>
+      <c r="F8" s="375"/>
+      <c r="G8" s="376"/>
+      <c r="H8" s="377"/>
     </row>
     <row r="9">
-      <c r="A9" s="362"/>
-      <c r="B9" s="363"/>
-      <c r="C9" s="364"/>
-      <c r="D9" s="365"/>
-      <c r="E9" s="366"/>
-      <c r="F9" s="367"/>
-      <c r="G9" s="368"/>
-      <c r="H9" s="369"/>
+      <c r="A9" s="378"/>
+      <c r="B9" s="379"/>
+      <c r="C9" s="380"/>
+      <c r="D9" s="381"/>
+      <c r="E9" s="382"/>
+      <c r="F9" s="383"/>
+      <c r="G9" s="384"/>
+      <c r="H9" s="385"/>
     </row>
     <row r="10">
-      <c r="A10" s="370"/>
-      <c r="B10" s="371"/>
-      <c r="C10" s="372"/>
-      <c r="D10" s="373"/>
-      <c r="E10" s="374"/>
-      <c r="F10" s="375"/>
-      <c r="G10" s="376"/>
-      <c r="H10" s="377"/>
+      <c r="A10" s="386"/>
+      <c r="B10" s="387"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="389"/>
+      <c r="E10" s="390"/>
+      <c r="F10" s="391"/>
+      <c r="G10" s="392"/>
+      <c r="H10" s="393"/>
     </row>
     <row r="11">
-      <c r="A11" s="378"/>
-      <c r="B11" s="379"/>
-      <c r="C11" s="380"/>
-      <c r="D11" s="381"/>
-      <c r="E11" s="382"/>
-      <c r="F11" s="383"/>
-      <c r="G11" s="384"/>
-      <c r="H11" s="385"/>
+      <c r="A11" s="394"/>
+      <c r="B11" s="395"/>
+      <c r="C11" s="396"/>
+      <c r="D11" s="397"/>
+      <c r="E11" s="398"/>
+      <c r="F11" s="399"/>
+      <c r="G11" s="400"/>
+      <c r="H11" s="401"/>
     </row>
     <row r="12">
-      <c r="A12" s="386"/>
-      <c r="B12" s="387"/>
-      <c r="C12" s="388"/>
-      <c r="D12" s="389"/>
-      <c r="E12" s="390"/>
-      <c r="F12" s="391"/>
-      <c r="G12" s="392"/>
-      <c r="H12" s="393"/>
+      <c r="A12" s="402"/>
+      <c r="B12" s="403"/>
+      <c r="C12" s="404"/>
+      <c r="D12" s="405"/>
+      <c r="E12" s="406"/>
+      <c r="F12" s="407"/>
+      <c r="G12" s="408"/>
+      <c r="H12" s="409"/>
     </row>
     <row r="13">
-      <c r="A13" s="394"/>
-      <c r="B13" s="395"/>
-      <c r="C13" s="396"/>
-      <c r="D13" s="397"/>
-      <c r="E13" s="398"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="400"/>
-      <c r="H13" s="401"/>
+      <c r="A13" s="410"/>
+      <c r="B13" s="411"/>
+      <c r="C13" s="412"/>
+      <c r="D13" s="413"/>
+      <c r="E13" s="414"/>
+      <c r="F13" s="415"/>
+      <c r="G13" s="416"/>
+      <c r="H13" s="417"/>
     </row>
     <row r="14">
-      <c r="A14" s="402"/>
-      <c r="B14" s="403"/>
-      <c r="C14" s="404"/>
-      <c r="D14" s="405"/>
-      <c r="E14" s="406"/>
-      <c r="F14" s="407"/>
-      <c r="G14" s="408"/>
-      <c r="H14" s="409"/>
+      <c r="A14" s="418"/>
+      <c r="B14" s="419"/>
+      <c r="C14" s="420"/>
+      <c r="D14" s="421"/>
+      <c r="E14" s="422"/>
+      <c r="F14" s="423"/>
+      <c r="G14" s="424"/>
+      <c r="H14" s="425"/>
     </row>
     <row r="15">
-      <c r="A15" s="410"/>
-      <c r="B15" s="411"/>
-      <c r="C15" s="412"/>
-      <c r="D15" s="413"/>
-      <c r="E15" s="414"/>
-      <c r="F15" s="415"/>
-      <c r="G15" s="416"/>
-      <c r="H15" s="417"/>
+      <c r="A15" s="426"/>
+      <c r="B15" s="427"/>
+      <c r="C15" s="428"/>
+      <c r="D15" s="429"/>
+      <c r="E15" s="430"/>
+      <c r="F15" s="431"/>
+      <c r="G15" s="432"/>
+      <c r="H15" s="433"/>
     </row>
     <row r="16">
-      <c r="A16" s="418"/>
-      <c r="B16" s="419"/>
-      <c r="C16" s="420"/>
-      <c r="D16" s="421"/>
-      <c r="E16" s="422"/>
-      <c r="F16" s="423"/>
-      <c r="G16" s="424"/>
-      <c r="H16" s="425"/>
+      <c r="A16" s="434"/>
+      <c r="B16" s="435"/>
+      <c r="C16" s="436"/>
+      <c r="D16" s="437"/>
+      <c r="E16" s="438"/>
+      <c r="F16" s="439"/>
+      <c r="G16" s="440"/>
+      <c r="H16" s="441"/>
     </row>
     <row r="17">
-      <c r="A17" s="426"/>
-      <c r="B17" s="427"/>
-      <c r="C17" s="428"/>
-      <c r="D17" s="429"/>
-      <c r="E17" s="430"/>
-      <c r="F17" s="431"/>
-      <c r="G17" s="432"/>
-      <c r="H17" s="433"/>
+      <c r="A17" s="442"/>
+      <c r="B17" s="443"/>
+      <c r="C17" s="444"/>
+      <c r="D17" s="445"/>
+      <c r="E17" s="446"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="448"/>
+      <c r="H17" s="449"/>
     </row>
     <row r="18">
-      <c r="A18" s="434"/>
-      <c r="B18" s="435"/>
-      <c r="C18" s="436"/>
-      <c r="D18" s="437"/>
-      <c r="E18" s="438"/>
-      <c r="F18" s="439"/>
-      <c r="G18" s="440"/>
-      <c r="H18" s="441"/>
+      <c r="A18" s="450"/>
+      <c r="B18" s="451"/>
+      <c r="C18" s="452"/>
+      <c r="D18" s="453"/>
+      <c r="E18" s="454"/>
+      <c r="F18" s="455"/>
+      <c r="G18" s="456"/>
+      <c r="H18" s="457"/>
     </row>
     <row r="19">
-      <c r="A19" s="442"/>
-      <c r="B19" s="443"/>
-      <c r="C19" s="444"/>
-      <c r="D19" s="445"/>
-      <c r="E19" s="446"/>
-      <c r="F19" s="447"/>
-      <c r="G19" s="448"/>
-      <c r="H19" s="449"/>
+      <c r="A19" s="458"/>
+      <c r="B19" s="459"/>
+      <c r="C19" s="460"/>
+      <c r="D19" s="461"/>
+      <c r="E19" s="462"/>
+      <c r="F19" s="463"/>
+      <c r="G19" s="464"/>
+      <c r="H19" s="465"/>
     </row>
     <row r="20">
-      <c r="A20" s="450"/>
-      <c r="B20" s="451"/>
-      <c r="C20" s="452"/>
-      <c r="D20" s="453"/>
-      <c r="E20" s="454"/>
-      <c r="F20" s="455"/>
-      <c r="G20" s="456"/>
-      <c r="H20" s="457"/>
+      <c r="A20" s="466"/>
+      <c r="B20" s="467"/>
+      <c r="C20" s="468"/>
+      <c r="D20" s="469"/>
+      <c r="E20" s="470"/>
+      <c r="F20" s="471"/>
+      <c r="G20" s="472"/>
+      <c r="H20" s="473"/>
     </row>
     <row r="21">
-      <c r="A21" s="458"/>
-      <c r="B21" s="459"/>
-      <c r="C21" s="460"/>
-      <c r="D21" s="461"/>
-      <c r="E21" s="462"/>
-      <c r="F21" s="463"/>
-      <c r="G21" s="464"/>
-      <c r="H21" s="465"/>
+      <c r="A21" s="474"/>
+      <c r="B21" s="475"/>
+      <c r="C21" s="476"/>
+      <c r="D21" s="477"/>
+      <c r="E21" s="478"/>
+      <c r="F21" s="479"/>
+      <c r="G21" s="480"/>
+      <c r="H21" s="481"/>
     </row>
     <row r="22">
-      <c r="A22" s="466"/>
-      <c r="B22" s="467"/>
-      <c r="C22" s="468"/>
-      <c r="D22" s="469"/>
-      <c r="E22" s="470"/>
-      <c r="F22" s="471"/>
-      <c r="G22" s="472"/>
-      <c r="H22" s="473"/>
+      <c r="A22" s="482"/>
+      <c r="B22" s="483"/>
+      <c r="C22" s="484"/>
+      <c r="D22" s="485"/>
+      <c r="E22" s="486"/>
+      <c r="F22" s="487"/>
+      <c r="G22" s="488"/>
+      <c r="H22" s="489"/>
     </row>
     <row r="23">
-      <c r="A23" s="474"/>
-      <c r="B23" s="475"/>
-      <c r="C23" s="476"/>
-      <c r="D23" s="477"/>
-      <c r="E23" s="478"/>
-      <c r="F23" s="479"/>
-      <c r="G23" s="480"/>
-      <c r="H23" s="481"/>
+      <c r="A23" s="490"/>
+      <c r="B23" s="491"/>
+      <c r="C23" s="492"/>
+      <c r="D23" s="493"/>
+      <c r="E23" s="494"/>
+      <c r="F23" s="495"/>
+      <c r="G23" s="496"/>
+      <c r="H23" s="497"/>
     </row>
     <row r="24">
-      <c r="A24" s="482"/>
-      <c r="B24" s="483"/>
-      <c r="C24" s="484"/>
-      <c r="D24" s="485"/>
-      <c r="E24" s="486"/>
-      <c r="F24" s="487"/>
-      <c r="G24" s="488"/>
-      <c r="H24" s="489"/>
+      <c r="A24" s="498"/>
+      <c r="B24" s="499"/>
+      <c r="C24" s="500"/>
+      <c r="D24" s="501"/>
+      <c r="E24" s="502"/>
+      <c r="F24" s="503"/>
+      <c r="G24" s="504"/>
+      <c r="H24" s="505"/>
     </row>
     <row r="25">
-      <c r="A25" s="490"/>
-      <c r="B25" s="491"/>
-      <c r="C25" s="492"/>
-      <c r="D25" s="493"/>
-      <c r="E25" s="494"/>
-      <c r="F25" s="495"/>
-      <c r="G25" s="496"/>
-      <c r="H25" s="497"/>
+      <c r="A25" s="506"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="508"/>
+      <c r="D25" s="509"/>
+      <c r="E25" s="510"/>
+      <c r="F25" s="511"/>
+      <c r="G25" s="512"/>
+      <c r="H25" s="513"/>
     </row>
     <row r="26">
-      <c r="A26" s="498"/>
-      <c r="B26" s="499"/>
-      <c r="C26" s="500"/>
-      <c r="D26" s="501"/>
-      <c r="E26" s="502"/>
-      <c r="F26" s="503"/>
-      <c r="G26" s="504"/>
-      <c r="H26" s="505"/>
+      <c r="A26" s="514"/>
+      <c r="B26" s="515"/>
+      <c r="C26" s="516"/>
+      <c r="D26" s="517"/>
+      <c r="E26" s="518"/>
+      <c r="F26" s="519"/>
+      <c r="G26" s="520"/>
+      <c r="H26" s="521"/>
     </row>
     <row r="27">
-      <c r="A27" s="506"/>
-      <c r="B27" s="507"/>
-      <c r="C27" s="508"/>
-      <c r="D27" s="509"/>
-      <c r="E27" s="510"/>
-      <c r="F27" s="511"/>
-      <c r="G27" s="512"/>
-      <c r="H27" s="513"/>
+      <c r="A27" s="522"/>
+      <c r="B27" s="523"/>
+      <c r="C27" s="524"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="526"/>
+      <c r="F27" s="527"/>
+      <c r="G27" s="528"/>
+      <c r="H27" s="529"/>
     </row>
     <row r="28">
-      <c r="A28" s="514"/>
-      <c r="B28" s="515"/>
-      <c r="C28" s="516"/>
-      <c r="D28" s="517"/>
-      <c r="E28" s="518"/>
-      <c r="F28" s="519"/>
-      <c r="G28" s="520"/>
-      <c r="H28" s="521"/>
+      <c r="A28" s="530"/>
+      <c r="B28" s="531"/>
+      <c r="C28" s="532"/>
+      <c r="D28" s="533"/>
+      <c r="E28" s="534"/>
+      <c r="F28" s="535"/>
+      <c r="G28" s="536"/>
+      <c r="H28" s="537"/>
     </row>
     <row r="29">
-      <c r="A29" s="522"/>
-      <c r="B29" s="523"/>
-      <c r="C29" s="524"/>
-      <c r="D29" s="525"/>
-      <c r="E29" s="526"/>
-      <c r="F29" s="527"/>
-      <c r="G29" s="528"/>
-      <c r="H29" s="529"/>
+      <c r="A29" s="538"/>
+      <c r="B29" s="539"/>
+      <c r="C29" s="540"/>
+      <c r="D29" s="541"/>
+      <c r="E29" s="542"/>
+      <c r="F29" s="543"/>
+      <c r="G29" s="544"/>
+      <c r="H29" s="545"/>
     </row>
     <row r="30">
-      <c r="A30" s="530"/>
-      <c r="B30" s="531"/>
-      <c r="C30" s="532"/>
-      <c r="D30" s="533"/>
-      <c r="E30" s="534"/>
-      <c r="F30" s="535"/>
-      <c r="G30" s="536"/>
-      <c r="H30" s="537"/>
+      <c r="A30" s="546"/>
+      <c r="B30" s="547"/>
+      <c r="C30" s="548"/>
+      <c r="D30" s="549"/>
+      <c r="E30" s="550"/>
+      <c r="F30" s="551"/>
+      <c r="G30" s="552"/>
+      <c r="H30" s="553"/>
     </row>
     <row r="31">
-      <c r="A31" s="538"/>
-      <c r="B31" s="539"/>
-      <c r="C31" s="540"/>
-      <c r="D31" s="541"/>
-      <c r="E31" s="542"/>
-      <c r="F31" s="543"/>
-      <c r="G31" s="544"/>
-      <c r="H31" s="545"/>
+      <c r="A31" s="554"/>
+      <c r="B31" s="555"/>
+      <c r="C31" s="556"/>
+      <c r="D31" s="557"/>
+      <c r="E31" s="558"/>
+      <c r="F31" s="559"/>
+      <c r="G31" s="560"/>
+      <c r="H31" s="561"/>
     </row>
     <row r="32">
-      <c r="A32" s="546"/>
-      <c r="B32" s="547"/>
-      <c r="C32" s="548"/>
-      <c r="D32" s="549"/>
-      <c r="E32" s="550"/>
-      <c r="F32" s="551"/>
-      <c r="G32" s="552"/>
-      <c r="H32" s="553"/>
+      <c r="A32" s="562"/>
+      <c r="B32" s="563"/>
+      <c r="C32" s="564"/>
+      <c r="D32" s="565"/>
+      <c r="E32" s="566"/>
+      <c r="F32" s="567"/>
+      <c r="G32" s="568"/>
+      <c r="H32" s="569"/>
     </row>
     <row r="33">
-      <c r="A33" s="554"/>
-      <c r="B33" s="555"/>
-      <c r="C33" s="556"/>
-      <c r="D33" s="557"/>
-      <c r="E33" s="558"/>
-      <c r="F33" s="559"/>
-      <c r="G33" s="560"/>
-      <c r="H33" s="561"/>
+      <c r="A33" s="570"/>
+      <c r="B33" s="571"/>
+      <c r="C33" s="572"/>
+      <c r="D33" s="573"/>
+      <c r="E33" s="574"/>
+      <c r="F33" s="575"/>
+      <c r="G33" s="576"/>
+      <c r="H33" s="577"/>
     </row>
     <row r="34">
-      <c r="A34" s="562"/>
-      <c r="B34" s="563"/>
-      <c r="C34" s="564"/>
-      <c r="D34" s="565"/>
-      <c r="E34" s="566"/>
-      <c r="F34" s="567"/>
-      <c r="G34" s="568"/>
-      <c r="H34" s="569"/>
+      <c r="A34" s="578"/>
+      <c r="B34" s="579"/>
+      <c r="C34" s="580"/>
+      <c r="D34" s="581"/>
+      <c r="E34" s="582"/>
+      <c r="F34" s="583"/>
+      <c r="G34" s="584"/>
+      <c r="H34" s="585"/>
     </row>
     <row r="35">
-      <c r="A35" s="570"/>
-      <c r="B35" s="571"/>
-      <c r="C35" s="572"/>
-      <c r="D35" s="573"/>
-      <c r="E35" s="574"/>
-      <c r="F35" s="575"/>
-      <c r="G35" s="576"/>
-      <c r="H35" s="577"/>
+      <c r="A35" s="586"/>
+      <c r="B35" s="587"/>
+      <c r="C35" s="588"/>
+      <c r="D35" s="589"/>
+      <c r="E35" s="590"/>
+      <c r="F35" s="591"/>
+      <c r="G35" s="592"/>
+      <c r="H35" s="593"/>
     </row>
     <row r="36">
-      <c r="A36" s="578"/>
-      <c r="B36" s="579"/>
-      <c r="C36" s="580"/>
-      <c r="D36" s="581"/>
-      <c r="E36" s="582"/>
-      <c r="F36" s="583"/>
-      <c r="G36" s="584"/>
-      <c r="H36" s="585"/>
+      <c r="A36" s="594"/>
+      <c r="B36" s="595"/>
+      <c r="C36" s="596"/>
+      <c r="D36" s="597"/>
+      <c r="E36" s="598"/>
+      <c r="F36" s="599"/>
+      <c r="G36" s="600"/>
+      <c r="H36" s="601"/>
     </row>
     <row r="37">
-      <c r="A37" s="586"/>
-      <c r="B37" s="587"/>
-      <c r="C37" s="588"/>
-      <c r="D37" s="589"/>
-      <c r="E37" s="590"/>
-      <c r="F37" s="591"/>
-      <c r="G37" s="592"/>
-      <c r="H37" s="593"/>
+      <c r="A37" s="602"/>
+      <c r="B37" s="603"/>
+      <c r="C37" s="604"/>
+      <c r="D37" s="605"/>
+      <c r="E37" s="606"/>
+      <c r="F37" s="607"/>
+      <c r="G37" s="608"/>
+      <c r="H37" s="609"/>
     </row>
     <row r="38">
-      <c r="A38" s="594"/>
-      <c r="B38" s="595"/>
-      <c r="C38" s="596"/>
-      <c r="D38" s="597"/>
-      <c r="E38" s="598"/>
-      <c r="F38" s="599"/>
-      <c r="G38" s="600"/>
-      <c r="H38" s="601"/>
+      <c r="A38" s="610"/>
+      <c r="B38" s="611"/>
+      <c r="C38" s="612"/>
+      <c r="D38" s="613"/>
+      <c r="E38" s="614"/>
+      <c r="F38" s="615"/>
+      <c r="G38" s="616"/>
+      <c r="H38" s="617"/>
     </row>
     <row r="39">
-      <c r="A39" s="602"/>
-      <c r="B39" s="603"/>
-      <c r="C39" s="604"/>
-      <c r="D39" s="605"/>
-      <c r="E39" s="606"/>
-      <c r="F39" s="607"/>
-      <c r="G39" s="608"/>
-      <c r="H39" s="609"/>
+      <c r="A39" s="618"/>
+      <c r="B39" s="619"/>
+      <c r="C39" s="620"/>
+      <c r="D39" s="621"/>
+      <c r="E39" s="622"/>
+      <c r="F39" s="623"/>
+      <c r="G39" s="624"/>
+      <c r="H39" s="625"/>
     </row>
     <row r="40">
-      <c r="A40" s="610"/>
-      <c r="B40" s="611"/>
-      <c r="C40" s="612"/>
-      <c r="D40" s="613"/>
-      <c r="E40" s="614"/>
-      <c r="F40" s="615"/>
-      <c r="G40" s="616"/>
-      <c r="H40" s="617"/>
+      <c r="A40" s="626"/>
+      <c r="B40" s="627"/>
+      <c r="C40" s="628"/>
+      <c r="D40" s="629"/>
+      <c r="E40" s="630"/>
+      <c r="F40" s="631"/>
+      <c r="G40" s="632"/>
+      <c r="H40" s="633"/>
     </row>
     <row r="41">
-      <c r="A41" s="618"/>
-      <c r="B41" s="619"/>
-      <c r="C41" s="620"/>
-      <c r="D41" s="621"/>
-      <c r="E41" s="622"/>
-      <c r="F41" s="623"/>
-      <c r="G41" s="624"/>
-      <c r="H41" s="625"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="626"/>
-      <c r="B42" s="627"/>
-      <c r="C42" s="628"/>
-      <c r="D42" s="629"/>
-      <c r="E42" s="630"/>
-      <c r="F42" s="631"/>
-      <c r="G42" s="632"/>
-      <c r="H42" s="633"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="634"/>
-      <c r="B43" s="635"/>
-      <c r="C43" s="636"/>
-      <c r="D43" s="637"/>
-      <c r="E43" s="638"/>
-      <c r="F43" s="639"/>
-      <c r="G43" s="640"/>
-      <c r="H43" s="641"/>
+      <c r="A41" s="634"/>
+      <c r="B41" s="635"/>
+      <c r="C41" s="636"/>
+      <c r="D41" s="637"/>
+      <c r="E41" s="638"/>
+      <c r="F41" s="639"/>
+      <c r="G41" s="640"/>
+      <c r="H41" s="641"/>
     </row>
   </sheetData>
 </worksheet>
